--- a/AAMK Hamid.xlsx
+++ b/AAMK Hamid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjkss\Desktop\9. semester\Empirisk-SFC-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/rs_id_aau_dk/Documents/AAU/06 Current Projects/00 SFC Quarterly - data - DK SE NO FI/SFCmodel/Resurgence of inflation/Model in R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593F99A2-D8E9-44BC-825B-CB12DCF0C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{13080B8A-DC3E-46DE-9467-399E0453D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D114577A-003A-C74B-98E0-6CC67D9A0998}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="519">
   <si>
     <t>IBA_h</t>
   </si>
@@ -1576,6 +1576,9 @@
     <t>wage_ds</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>inflation</t>
   </si>
   <si>
@@ -1583,6 +1586,9 @@
   </si>
   <si>
     <t>SD4</t>
+  </si>
+  <si>
+    <t>p_expect</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1969,16 +1975,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QO68"/>
+  <dimension ref="A1:QP71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="QE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="QN12" sqref="QN12"/>
+      <selection pane="topRight" activeCell="QP1" sqref="QP1:QP61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>496</v>
       </c>
@@ -3342,16 +3348,19 @@
         <v>513</v>
       </c>
       <c r="QM1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="QN1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="QO1" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -4714,8 +4723,8 @@
       <c r="QL2" s="5">
         <v>73.604820000000004</v>
       </c>
-      <c r="QM2">
-        <v>0</v>
+      <c r="QM2" t="s">
+        <v>514</v>
       </c>
       <c r="QN2" s="5">
         <v>73.604820000000004</v>
@@ -4723,8 +4732,11 @@
       <c r="QO2">
         <v>0</v>
       </c>
+      <c r="QP2" s="5">
+        <v>-11.433332999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -6087,8 +6099,8 @@
       <c r="QL3" s="5">
         <v>75.203680000000006</v>
       </c>
-      <c r="QM3">
-        <v>0</v>
+      <c r="QM3" t="s">
+        <v>514</v>
       </c>
       <c r="QN3" s="5">
         <v>75.203680000000006</v>
@@ -6096,8 +6108,11 @@
       <c r="QO3">
         <v>0</v>
       </c>
+      <c r="QP3" s="5">
+        <v>-1.7666667</v>
+      </c>
     </row>
-    <row r="4" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -7460,8 +7475,8 @@
       <c r="QL4" s="5">
         <v>73.585819999999998</v>
       </c>
-      <c r="QM4">
-        <v>0</v>
+      <c r="QM4" t="s">
+        <v>514</v>
       </c>
       <c r="QN4" s="5">
         <v>73.585819999999998</v>
@@ -7469,8 +7484,11 @@
       <c r="QO4">
         <v>1</v>
       </c>
+      <c r="QP4" s="5">
+        <v>-2.2666667</v>
+      </c>
     </row>
-    <row r="5" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -8833,8 +8851,8 @@
       <c r="QL5" s="5">
         <v>73.624889999999994</v>
       </c>
-      <c r="QM5">
-        <v>0</v>
+      <c r="QM5" t="s">
+        <v>514</v>
       </c>
       <c r="QN5" s="5">
         <v>73.624889999999994</v>
@@ -8842,8 +8860,11 @@
       <c r="QO5">
         <v>0</v>
       </c>
+      <c r="QP5" s="5">
+        <v>3.03333333</v>
+      </c>
     </row>
-    <row r="6" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -10215,8 +10236,11 @@
       <c r="QO6">
         <v>0</v>
       </c>
+      <c r="QP6" s="5">
+        <v>-2.2333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -11588,8 +11612,11 @@
       <c r="QO7">
         <v>0</v>
       </c>
+      <c r="QP7" s="5">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -12961,8 +12988,11 @@
       <c r="QO8">
         <v>1</v>
       </c>
+      <c r="QP8" s="5">
+        <v>3.3333330000000001E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -14335,8 +14365,11 @@
       <c r="QO9">
         <v>0</v>
       </c>
+      <c r="QP9" s="5">
+        <v>2.93333333</v>
+      </c>
     </row>
-    <row r="10" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -15708,8 +15741,11 @@
       <c r="QO10">
         <v>0</v>
       </c>
+      <c r="QP10" s="5">
+        <v>2.3333333299999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -17081,8 +17117,11 @@
       <c r="QO11">
         <v>0</v>
       </c>
+      <c r="QP11" s="5">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -18454,8 +18493,11 @@
       <c r="QO12">
         <v>1</v>
       </c>
+      <c r="QP12" s="5">
+        <v>19.1666667</v>
+      </c>
     </row>
-    <row r="13" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -19828,8 +19870,11 @@
       <c r="QO13">
         <v>0</v>
       </c>
+      <c r="QP13" s="5">
+        <v>21.933333300000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -21201,8 +21246,11 @@
       <c r="QO14">
         <v>0</v>
       </c>
+      <c r="QP14" s="5">
+        <v>20.466666700000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -22574,8 +22622,11 @@
       <c r="QO15">
         <v>0</v>
       </c>
+      <c r="QP15" s="5">
+        <v>10.033333300000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -23947,8 +23998,11 @@
       <c r="QO16">
         <v>1</v>
       </c>
+      <c r="QP16" s="5">
+        <v>-17.766667000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>371</v>
       </c>
@@ -25321,8 +25375,11 @@
       <c r="QO17">
         <v>0</v>
       </c>
+      <c r="QP17" s="5">
+        <v>-37.066667000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -26694,8 +26751,11 @@
       <c r="QO18">
         <v>0</v>
       </c>
+      <c r="QP18" s="5">
+        <v>-27.833333</v>
+      </c>
     </row>
-    <row r="19" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>373</v>
       </c>
@@ -28067,8 +28127,11 @@
       <c r="QO19">
         <v>0</v>
       </c>
+      <c r="QP19" s="5">
+        <v>-28.433333000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -29440,8 +29503,11 @@
       <c r="QO20">
         <v>1</v>
       </c>
+      <c r="QP20" s="5">
+        <v>-24.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>375</v>
       </c>
@@ -30814,8 +30880,11 @@
       <c r="QO21">
         <v>0</v>
       </c>
+      <c r="QP21" s="5">
+        <v>-14.633333</v>
+      </c>
     </row>
-    <row r="22" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -32187,8 +32256,11 @@
       <c r="QO22">
         <v>0</v>
       </c>
+      <c r="QP22" s="5">
+        <v>-8.8000000000000007</v>
+      </c>
     </row>
-    <row r="23" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -33560,8 +33632,11 @@
       <c r="QO23">
         <v>0</v>
       </c>
+      <c r="QP23" s="5">
+        <v>0.16666666999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -34933,8 +35008,11 @@
       <c r="QO24">
         <v>1</v>
       </c>
+      <c r="QP24" s="5">
+        <v>11.6333333</v>
+      </c>
     </row>
-    <row r="25" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -36307,8 +36385,11 @@
       <c r="QO25">
         <v>0</v>
       </c>
+      <c r="QP25" s="5">
+        <v>23.533333299999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>380</v>
       </c>
@@ -37680,8 +37761,11 @@
       <c r="QO26">
         <v>0</v>
       </c>
+      <c r="QP26" s="5">
+        <v>18.533333299999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -39053,8 +39137,11 @@
       <c r="QO27">
         <v>0</v>
       </c>
+      <c r="QP27" s="5">
+        <v>11.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -40426,8 +40513,11 @@
       <c r="QO28">
         <v>1</v>
       </c>
+      <c r="QP28" s="5">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -41800,8 +41890,11 @@
       <c r="QO29">
         <v>0</v>
       </c>
+      <c r="QP29" s="5">
+        <v>16.766666699999998</v>
+      </c>
     </row>
-    <row r="30" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>384</v>
       </c>
@@ -43173,8 +43266,11 @@
       <c r="QO30">
         <v>0</v>
       </c>
+      <c r="QP30" s="5">
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -44546,8 +44642,11 @@
       <c r="QO31">
         <v>0</v>
       </c>
+      <c r="QP31" s="5">
+        <v>14.533333300000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>386</v>
       </c>
@@ -45939,8 +46038,11 @@
       <c r="QO32">
         <v>1</v>
       </c>
+      <c r="QP32" s="5">
+        <v>14.2</v>
+      </c>
     </row>
-    <row r="33" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -47333,8 +47435,11 @@
       <c r="QO33">
         <v>0</v>
       </c>
+      <c r="QP33" s="5">
+        <v>10.7666667</v>
+      </c>
     </row>
-    <row r="34" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>388</v>
       </c>
@@ -48726,8 +48831,11 @@
       <c r="QO34">
         <v>0</v>
       </c>
+      <c r="QP34" s="5">
+        <v>10.066666700000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>389</v>
       </c>
@@ -50119,8 +50227,11 @@
       <c r="QO35">
         <v>0</v>
       </c>
+      <c r="QP35" s="5">
+        <v>14.1333333</v>
+      </c>
     </row>
-    <row r="36" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>390</v>
       </c>
@@ -51512,8 +51623,11 @@
       <c r="QO36">
         <v>1</v>
       </c>
+      <c r="QP36" s="5">
+        <v>15.3666667</v>
+      </c>
     </row>
-    <row r="37" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>391</v>
       </c>
@@ -52906,8 +53020,11 @@
       <c r="QO37">
         <v>0</v>
       </c>
+      <c r="QP37" s="5">
+        <v>17.3666667</v>
+      </c>
     </row>
-    <row r="38" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>392</v>
       </c>
@@ -54299,8 +54416,11 @@
       <c r="QO38">
         <v>0</v>
       </c>
+      <c r="QP38" s="5">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>393</v>
       </c>
@@ -55692,8 +55812,11 @@
       <c r="QO39">
         <v>0</v>
       </c>
+      <c r="QP39" s="5">
+        <v>18.6666667</v>
+      </c>
     </row>
-    <row r="40" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>394</v>
       </c>
@@ -57085,8 +57208,11 @@
       <c r="QO40">
         <v>1</v>
       </c>
+      <c r="QP40" s="5">
+        <v>19.100000000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -58479,8 +58605,11 @@
       <c r="QO41">
         <v>0</v>
       </c>
+      <c r="QP41" s="5">
+        <v>10.7</v>
+      </c>
     </row>
-    <row r="42" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>396</v>
       </c>
@@ -59872,8 +60001,11 @@
       <c r="QO42">
         <v>0</v>
       </c>
+      <c r="QP42" s="5">
+        <v>20.066666699999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -61265,8 +61397,11 @@
       <c r="QO43">
         <v>0</v>
       </c>
+      <c r="QP43" s="5">
+        <v>15.433333299999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -62658,8 +62793,11 @@
       <c r="QO44">
         <v>1</v>
       </c>
+      <c r="QP44" s="5">
+        <v>16.266666699999998</v>
+      </c>
     </row>
-    <row r="45" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -64052,8 +64190,11 @@
       <c r="QO45">
         <v>0</v>
       </c>
+      <c r="QP45" s="5">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="46" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -65445,8 +65586,11 @@
       <c r="QO46">
         <v>0</v>
       </c>
+      <c r="QP46" s="5">
+        <v>15.6666667</v>
+      </c>
     </row>
-    <row r="47" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -66838,8 +66982,11 @@
       <c r="QO47">
         <v>0</v>
       </c>
+      <c r="QP47" s="5">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -68231,8 +68378,11 @@
       <c r="QO48">
         <v>1</v>
       </c>
+      <c r="QP48" s="5">
+        <v>13.933333299999999</v>
+      </c>
     </row>
-    <row r="49" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>403</v>
       </c>
@@ -69625,8 +69775,11 @@
       <c r="QO49">
         <v>0</v>
       </c>
+      <c r="QP49" s="5">
+        <v>18.3333333</v>
+      </c>
     </row>
-    <row r="50" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -71018,8 +71171,11 @@
       <c r="QO50">
         <v>0</v>
       </c>
+      <c r="QP50" s="5">
+        <v>21</v>
+      </c>
     </row>
-    <row r="51" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -72411,8 +72567,11 @@
       <c r="QO51">
         <v>0</v>
       </c>
+      <c r="QP51" s="5">
+        <v>18.7</v>
+      </c>
     </row>
-    <row r="52" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -73804,8 +73963,11 @@
       <c r="QO52">
         <v>1</v>
       </c>
+      <c r="QP52" s="5">
+        <v>22.733333300000002</v>
+      </c>
     </row>
-    <row r="53" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -75198,8 +75360,11 @@
       <c r="QO53">
         <v>0</v>
       </c>
+      <c r="QP53" s="5">
+        <v>20.533333299999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -76592,8 +76757,11 @@
       <c r="QO54">
         <v>0</v>
       </c>
+      <c r="QP54" s="5">
+        <v>24.1</v>
+      </c>
     </row>
-    <row r="55" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -77986,8 +78154,11 @@
       <c r="QO55">
         <v>0</v>
       </c>
+      <c r="QP55" s="5">
+        <v>27.033333299999999</v>
+      </c>
     </row>
-    <row r="56" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -79380,8 +79551,11 @@
       <c r="QO56">
         <v>1</v>
       </c>
+      <c r="QP56" s="5">
+        <v>25.3333333</v>
+      </c>
     </row>
-    <row r="57" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>411</v>
       </c>
@@ -80775,8 +80949,11 @@
       <c r="QO57">
         <v>0</v>
       </c>
+      <c r="QP57" s="5">
+        <v>21.066666699999999</v>
+      </c>
     </row>
-    <row r="58" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -82169,8 +82346,11 @@
       <c r="QO58">
         <v>0</v>
       </c>
+      <c r="QP58" s="5">
+        <v>24.8666667</v>
+      </c>
     </row>
-    <row r="59" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>413</v>
       </c>
@@ -83563,8 +83743,11 @@
       <c r="QO59">
         <v>0</v>
       </c>
+      <c r="QP59" s="5">
+        <v>24.3666667</v>
+      </c>
     </row>
-    <row r="60" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -84957,8 +85140,11 @@
       <c r="QO60">
         <v>1</v>
       </c>
+      <c r="QP60" s="5">
+        <v>28.1333333</v>
+      </c>
     </row>
-    <row r="61" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -86352,8 +86538,11 @@
       <c r="QO61">
         <v>0</v>
       </c>
+      <c r="QP61" s="5">
+        <v>26.6666667</v>
+      </c>
     </row>
-    <row r="62" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="LF62" s="1"/>
       <c r="LG62" s="1"/>
       <c r="LH62" s="1"/>
@@ -86397,8 +86586,9 @@
       <c r="MT62" s="1"/>
       <c r="MU62" s="1"/>
       <c r="QF62" s="5"/>
+      <c r="QP62" s="5"/>
     </row>
-    <row r="63" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="LF63" s="1"/>
       <c r="LG63" s="1"/>
       <c r="LH63" s="1"/>
@@ -86442,8 +86632,9 @@
       <c r="MT63" s="1"/>
       <c r="MU63" s="1"/>
       <c r="QF63" s="5"/>
+      <c r="QP63" s="5"/>
     </row>
-    <row r="64" spans="1:457" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:458" ht="16" x14ac:dyDescent="0.2">
       <c r="LF64" s="1"/>
       <c r="LG64" s="1"/>
       <c r="LH64" s="1"/>
@@ -86487,18 +86678,32 @@
       <c r="MT64" s="1"/>
       <c r="MU64" s="1"/>
       <c r="QF64" s="5"/>
+      <c r="QP64" s="5"/>
     </row>
-    <row r="65" spans="448:448" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="448:458" ht="16" x14ac:dyDescent="0.2">
       <c r="QF65" s="5"/>
+      <c r="QP65" s="5"/>
     </row>
-    <row r="66" spans="448:448" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="448:458" ht="16" x14ac:dyDescent="0.2">
       <c r="QF66" s="5"/>
+      <c r="QP66" s="5"/>
     </row>
-    <row r="67" spans="448:448" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="448:458" ht="16" x14ac:dyDescent="0.2">
       <c r="QF67" s="5"/>
+      <c r="QP67" s="5"/>
     </row>
-    <row r="68" spans="448:448" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="448:458" ht="16" x14ac:dyDescent="0.2">
       <c r="QF68" s="5"/>
+      <c r="QP68" s="5"/>
+    </row>
+    <row r="69" spans="448:458" ht="16" x14ac:dyDescent="0.2">
+      <c r="QP69" s="5"/>
+    </row>
+    <row r="70" spans="448:458" ht="16" x14ac:dyDescent="0.2">
+      <c r="QP70" s="5"/>
+    </row>
+    <row r="71" spans="448:458" ht="16" x14ac:dyDescent="0.2">
+      <c r="QP71" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -86512,7 +86717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
